--- a/data/trans_bre/P1417-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1417-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.194532735537508</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.252547851992281</v>
+        <v>2.25254785199228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>3.287062791265937</v>
@@ -649,7 +649,7 @@
         <v>2.822399076161918</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.416176525684407</v>
+        <v>1.416176525684406</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2278931384355669</v>
+        <v>0.192910949225062</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.302829199978741</v>
+        <v>1.234526202844447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7408887738587423</v>
+        <v>0.8174837046625339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8205669974804646</v>
+        <v>0.8301856349632198</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2115372412488523</v>
+        <v>-0.3315687769027455</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>0.1351865560545602</v>
+        <v>0.4221648142851995</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3030959075112859</v>
+        <v>0.2820556245627749</v>
       </c>
     </row>
     <row r="6">
@@ -690,24 +690,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.455283130297846</v>
+        <v>2.381067160555367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.005839510038931</v>
+        <v>3.743497935820042</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.759239339779602</v>
+        <v>3.67727653030486</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.745517074074288</v>
+        <v>3.658640961238746</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>11.80570469073014</v>
+        <v>11.37436858945188</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.49076426830645</v>
+        <v>3.362911683891412</v>
       </c>
     </row>
     <row r="7">
@@ -731,7 +731,7 @@
         <v>1.251344970745044</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.665339743092145</v>
+        <v>2.665339743092146</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>3.111445108112122</v>
@@ -754,28 +754,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2534568712776011</v>
+        <v>0.2887440118252071</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.344101543338364</v>
+        <v>1.428870803589389</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3538636818479315</v>
+        <v>0.245311131883888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.412259653972422</v>
+        <v>1.513533569712843</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0167510895109664</v>
+        <v>0.01913060113179661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.003065814440992</v>
+        <v>0.9861682151992229</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1468337775821152</v>
+        <v>0.0507750572543867</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6295818857834394</v>
+        <v>0.6142532095775399</v>
       </c>
     </row>
     <row r="9">
@@ -786,28 +786,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.956803975654125</v>
+        <v>1.978006729052631</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.003457245330122</v>
+        <v>3.76318026234384</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.384366236768237</v>
+        <v>2.29255630401284</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.792555758789846</v>
+        <v>3.928031250151175</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>16.32007322606421</v>
+        <v>17.9731104059166</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>10.58942433324146</v>
+        <v>10.04799506968943</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.320874884795701</v>
+        <v>4.790032372802052</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.610057404560596</v>
+        <v>3.789493567430828</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +831,7 @@
         <v>1.549016502521896</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.713533333370586</v>
+        <v>4.713533333370588</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>5.945286706809693</v>
@@ -854,26 +854,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9605022747152671</v>
+        <v>1.06433655986961</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.433838440086437</v>
+        <v>1.460203696309156</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4741251531877888</v>
+        <v>0.4555019229227499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.118049012856809</v>
+        <v>3.097528332058873</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.332832909760302</v>
+        <v>0.5021767866644832</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>0.217861612949329</v>
+        <v>0.2650810884486207</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1.780749423917222</v>
+        <v>1.75131950331143</v>
       </c>
     </row>
     <row r="12">
@@ -884,24 +884,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.854231099284242</v>
+        <v>3.815084470292113</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.886243397349773</v>
+        <v>3.941097999995665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.856030743801588</v>
+        <v>2.918641537587527</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.664487743662509</v>
+        <v>6.748651973301128</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>10.23628390237335</v>
+        <v>11.16467012552852</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>11.79927582039382</v>
+        <v>10.40107998249645</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +925,7 @@
         <v>2.624287145623814</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.520498363154943</v>
+        <v>3.520498363154942</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.684766402489493</v>
@@ -937,7 +937,7 @@
         <v>27.29329058209722</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>4.032292400253001</v>
+        <v>4.032292400252998</v>
       </c>
     </row>
     <row r="14">
@@ -948,26 +948,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1211234807560177</v>
+        <v>0.2016578136125112</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7879279661895431</v>
+        <v>0.8405268696620763</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.679536499001332</v>
+        <v>1.653970417696528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.504070124401451</v>
+        <v>2.463201679281224</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01658663678042209</v>
+        <v>0.02878457981614879</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5391420206393013</v>
+        <v>0.6539454859668185</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>1.74183068223221</v>
+        <v>1.718989587788219</v>
       </c>
     </row>
     <row r="15">
@@ -978,26 +978,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.037553795795071</v>
+        <v>1.942841283675001</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.925734294794896</v>
+        <v>2.805598583213462</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.957332383300819</v>
+        <v>3.804285383940584</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.699405961401887</v>
+        <v>4.757562827268975</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.994513739405214</v>
+        <v>7.533248768769425</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9.869941191319734</v>
+        <v>8.238581501224781</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>8.639943307695754</v>
+        <v>9.026932996993041</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         <v>1.888347642645156</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.278252453610689</v>
+        <v>3.278252453610688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>3.148128375916508</v>
@@ -1044,28 +1044,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8119718114070827</v>
+        <v>0.8405821556961707</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.735864528242174</v>
+        <v>1.694770998102368</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.375393301226235</v>
+        <v>1.310527413469721</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.540551168639907</v>
+        <v>2.662635283996269</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.180677324601156</v>
+        <v>1.15336121304535</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>2.600635867390532</v>
+        <v>2.776911976092682</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.72601520016717</v>
+        <v>1.695958257402687</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.657798836135069</v>
+        <v>1.729301931177508</v>
       </c>
     </row>
     <row r="18">
@@ -1076,28 +1076,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.867052760272104</v>
+        <v>1.809896593570369</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.924141201119448</v>
+        <v>2.919269294735913</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.521076585986389</v>
+        <v>2.490446876032134</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.919413257231953</v>
+        <v>3.975249397797525</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7.390043603253314</v>
+        <v>6.83957813070254</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9.922545059143879</v>
+        <v>10.33972202514897</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6.532053525683754</v>
+        <v>6.43470798260547</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.929201962107613</v>
+        <v>3.899330030885322</v>
       </c>
     </row>
     <row r="19">
